--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="12">
   <si>
     <t xml:space="preserve">     Increasing</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          quikSort</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>    Arrays.sort</c:v>
+                  <c:v>          quikSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -167,9 +170,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$25:$H$25</c:f>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -186,6 +189,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -193,10 +205,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$H$26</c:f>
+              <c:f>Sheet1!$C$26:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -214,6 +226,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,9 +262,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$25:$H$25</c:f>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -260,6 +281,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -267,10 +297,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$H$27</c:f>
+              <c:f>Sheet1!$C$27:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -287,7 +317,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,9 +354,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$25:$H$25</c:f>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -334,6 +373,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -341,10 +389,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$H$28</c:f>
+              <c:f>Sheet1!$C$28:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -361,7 +409,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,9 +446,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$25:$H$25</c:f>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -408,6 +465,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -415,10 +481,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:f>Sheet1!$C$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -435,7 +501,16 @@
                   <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1083</c:v>
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>361045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>454892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,20 +525,44 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57485184"/>
-        <c:axId val="57536512"/>
+        <c:axId val="123968128"/>
+        <c:axId val="123970304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57485184"/>
+        <c:axId val="123968128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>List</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57536512"/>
+        <c:crossAx val="123970304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -471,18 +570,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57536512"/>
+        <c:axId val="123970304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57485184"/>
+        <c:crossAx val="123968128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -553,7 +671,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>    Arrays.sort</c:v>
+                  <c:v>          quikSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -571,9 +689,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:f>Sheet1!$C$31:$K$31</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -590,6 +708,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -597,10 +724,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$H$32</c:f>
+              <c:f>Sheet1!$C$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -617,7 +744,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,9 +776,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:f>Sheet1!$C$31:$K$31</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -659,6 +795,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -666,10 +811,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:f>Sheet1!$C$33:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -687,6 +832,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,9 +868,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:f>Sheet1!$C$31:$K$31</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -733,6 +887,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -740,10 +903,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$H$34</c:f>
+              <c:f>Sheet1!$C$34:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -760,7 +923,16 @@
                   <c:v>785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>949</c:v>
+                  <c:v>3204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>328152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>413156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,9 +960,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$31:$H$31</c:f>
+              <c:f>Sheet1!$C$31:$K$31</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -807,6 +979,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -814,10 +995,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$H$35</c:f>
+              <c:f>Sheet1!$C$35:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -834,7 +1015,16 @@
                   <c:v>1592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1929</c:v>
+                  <c:v>6404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>644623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>814133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,20 +1039,45 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="111461504"/>
-        <c:axId val="111463424"/>
+        <c:axId val="124661120"/>
+        <c:axId val="124663296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111461504"/>
+        <c:axId val="124661120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>List</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111463424"/>
+        <c:crossAx val="124663296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,18 +1085,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111463424"/>
+        <c:axId val="124663296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111461504"/>
+        <c:crossAx val="124661120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,7 +1196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>    Arrays.sort</c:v>
+                  <c:v>          quikSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -970,9 +1209,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$H$37</c:f>
+              <c:f>Sheet1!$C$37:$K$37</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -989,6 +1228,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -996,10 +1244,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$H$38</c:f>
+              <c:f>Sheet1!$C$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1016,7 +1264,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,9 +1296,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$H$37</c:f>
+              <c:f>Sheet1!$C$37:$K$37</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1058,6 +1315,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1065,10 +1331,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$H$39</c:f>
+              <c:f>Sheet1!$C$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1085,7 +1351,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,9 +1388,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$H$37</c:f>
+              <c:f>Sheet1!$C$37:$K$37</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1132,6 +1407,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1139,10 +1423,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$40:$H$40</c:f>
+              <c:f>Sheet1!$C$40:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1159,7 +1443,16 @@
                   <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>479</c:v>
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,9 +1480,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$H$37</c:f>
+              <c:f>Sheet1!$C$37:$K$37</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1206,6 +1499,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1213,10 +1515,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$41:$H$41</c:f>
+              <c:f>Sheet1!$C$41:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,7 +1535,16 @@
                   <c:v>904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1094</c:v>
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>455244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,20 +1559,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116007680"/>
-        <c:axId val="116009216"/>
+        <c:axId val="124694912"/>
+        <c:axId val="124696832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116007680"/>
+        <c:axId val="124694912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>List Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116009216"/>
+        <c:crossAx val="124696832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,18 +1600,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116009216"/>
+        <c:axId val="124696832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116007680"/>
+        <c:crossAx val="124694912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1351,7 +1701,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>    Arrays.sort</c:v>
+                  <c:v>          quikSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,9 +1714,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$43:$H$43</c:f>
+              <c:f>Sheet1!$C$43:$K$43</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1383,6 +1733,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1390,10 +1749,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$44:$H$44</c:f>
+              <c:f>Sheet1!$C$44:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1410,7 +1769,16 @@
                   <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>17.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,9 +1801,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$43:$H$43</c:f>
+              <c:f>Sheet1!$C$43:$K$43</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1452,6 +1820,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1459,10 +1836,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$45:$H$45</c:f>
+              <c:f>Sheet1!$C$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
@@ -1479,7 +1856,16 @@
                   <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.66666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,9 +1893,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$43:$H$43</c:f>
+              <c:f>Sheet1!$C$43:$K$43</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1526,6 +1912,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1533,10 +1928,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$46:$H$46</c:f>
+              <c:f>Sheet1!$C$46:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1553,7 +1948,16 @@
                   <c:v>394.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>476.33333333333331</c:v>
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40308.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164080.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206461.33333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,9 +1985,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$43:$H$43</c:f>
+              <c:f>Sheet1!$C$43:$K$43</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1600,6 +2004,15 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Total Time</c:v>
                 </c:pt>
               </c:strCache>
@@ -1607,10 +2020,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$47:$H$47</c:f>
+              <c:f>Sheet1!$C$47:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.3333333333333333</c:v>
                 </c:pt>
@@ -1627,7 +2040,16 @@
                   <c:v>1126.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1368.6666666666667</c:v>
+                  <c:v>4514.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>455534.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>574756.33333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,20 +2064,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137907584"/>
-        <c:axId val="137925760"/>
+        <c:axId val="124748928"/>
+        <c:axId val="124750848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137907584"/>
+        <c:axId val="124748928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>List Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137925760"/>
+        <c:crossAx val="124750848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1663,18 +2105,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137925760"/>
+        <c:axId val="124750848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137907584"/>
+        <c:crossAx val="124748928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,16 +2161,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>186417</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209302</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>171363</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1730,16 +2191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50345</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>444581</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>90176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>126545</xdr:rowOff>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>5679</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1760,16 +2221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131988</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>357745</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>17688</xdr:rowOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>290452</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1790,16 +2251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>186417</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>269419</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>50344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>385907</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2108,15 +2569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I81"/>
+  <dimension ref="B3:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2344,7 +2806,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2364,7 +2826,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2846,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -2404,7 +2866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -2424,12 +2886,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -2448,13 +2910,22 @@
       <c r="G25">
         <v>50000</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>100000</v>
+      </c>
+      <c r="I25">
+        <v>500000</v>
+      </c>
+      <c r="J25">
+        <v>1000000</v>
+      </c>
+      <c r="K25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2472,11 +2943,20 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f>SUM(C26:G26)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f>SUM(C26:J26)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2496,11 +2976,20 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <f>SUM(C27:G27)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K47" si="0">SUM(C27:J27)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -2520,11 +3009,20 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <f>SUM(C28:G28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>103</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -2544,11 +3042,20 @@
         <v>884</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H27:H41" si="0">SUM(C29:G29)</f>
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3557</v>
+      </c>
+      <c r="I29">
+        <v>89207</v>
+      </c>
+      <c r="J29">
+        <v>361045</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>454892</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -2567,13 +3074,22 @@
       <c r="G31">
         <v>50000</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31">
+        <v>100000</v>
+      </c>
+      <c r="I31">
+        <v>500000</v>
+      </c>
+      <c r="J31">
+        <v>1000000</v>
+      </c>
+      <c r="K31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2591,11 +3107,20 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <f>SUM(C32:G32)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -2615,11 +3140,20 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <f>SUM(C33:G33)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>47</v>
+      </c>
+      <c r="J33">
+        <v>106</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -2639,11 +3173,20 @@
         <v>785</v>
       </c>
       <c r="H34">
-        <f>SUM(C34:G34)</f>
-        <v>949</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3204</v>
+      </c>
+      <c r="I34">
+        <v>80851</v>
+      </c>
+      <c r="J34">
+        <v>328152</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>413156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1</v>
       </c>
@@ -2663,11 +3206,20 @@
         <v>1592</v>
       </c>
       <c r="H35">
+        <v>6404</v>
+      </c>
+      <c r="I35">
+        <v>161177</v>
+      </c>
+      <c r="J35">
+        <v>644623</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="0"/>
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>814133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -2686,13 +3238,22 @@
       <c r="G37">
         <v>50000</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37">
+        <v>100000</v>
+      </c>
+      <c r="I37">
+        <v>500000</v>
+      </c>
+      <c r="J37">
+        <v>1000000</v>
+      </c>
+      <c r="K37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2710,11 +3271,20 @@
         <v>13</v>
       </c>
       <c r="H38">
-        <f>SUM(C38:G38)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2734,11 +3304,20 @@
         <v>8</v>
       </c>
       <c r="H39">
-        <f>SUM(C39:G39)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <v>188</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>2</v>
       </c>
@@ -2758,11 +3337,20 @@
         <v>397</v>
       </c>
       <c r="H40">
-        <f>SUM(C40:G40)</f>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+      <c r="I40">
+        <v>40024</v>
+      </c>
+      <c r="J40">
+        <v>163987</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>206065</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -2782,11 +3370,20 @@
         <v>904</v>
       </c>
       <c r="H41">
+        <v>3582</v>
+      </c>
+      <c r="I41">
+        <v>89633</v>
+      </c>
+      <c r="J41">
+        <v>360935</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="0"/>
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>455244</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2805,39 +3402,60 @@
       <c r="G43">
         <v>50000</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43">
+        <v>100000</v>
+      </c>
+      <c r="I43">
+        <v>500000</v>
+      </c>
+      <c r="J43">
+        <v>1000000</v>
+      </c>
+      <c r="K43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <f>(D26+D32+D38)/3</f>
+        <f t="shared" ref="D44:J46" si="1">(D26+D32+D38)/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="E44">
-        <f>(E26+E32+E38)/3</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F44">
-        <f>(F26+F32+F38)/3</f>
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
       <c r="G44">
-        <f>(G26+G32+G38)/3</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="H44">
-        <f>(H26+H32+H38)/3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>74.333333333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>3</v>
       </c>
@@ -2846,27 +3464,39 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D45">
-        <f>(D27+D33+D39)/3</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="E45">
-        <f>(E27+E33+E39)/3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F45">
-        <f>(F27+F33+F39)/3</f>
+        <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="G45">
-        <f>(G27+G33+G39)/3</f>
+        <f t="shared" ref="G45:J45" si="2">(G27+G33+G39)/3</f>
         <v>5.666666666666667</v>
       </c>
       <c r="H45">
-        <f>(H27+H33+H39)/3</f>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>169.66666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>2</v>
       </c>
@@ -2875,53 +3505,504 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f>(D28+D34+D40)/3</f>
+        <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="E46">
-        <f>(E28+E34+E40)/3</f>
+        <f t="shared" si="1"/>
         <v>15.666666666666666</v>
       </c>
       <c r="F46">
-        <f>(F28+F34+F40)/3</f>
+        <f t="shared" si="1"/>
         <v>62.666666666666664</v>
       </c>
       <c r="G46">
-        <f>(G28+G34+G40)/3</f>
+        <f t="shared" ref="G46:J46" si="3">(G28+G34+G40)/3</f>
         <v>394.33333333333331</v>
       </c>
       <c r="H46">
-        <f>(H28+H34+H40)/3</f>
-        <v>476.33333333333331</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1596</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>40308.333333333336</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>164080.66666666666</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>206461.33333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:H47" si="1">(C29+C35+C41)/3</f>
+        <f t="shared" ref="C47:J47" si="4">(C29+C35+C41)/3</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.333333333333334</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>180.33333333333334</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1126.6666666666667</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>1368.6666666666667</v>
+        <f t="shared" si="4"/>
+        <v>4514.333333333333</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>113339</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>455534.33333333331</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>574756.33333333326</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="D50">
+        <v>5000</v>
+      </c>
+      <c r="E50">
+        <v>10000</v>
+      </c>
+      <c r="F50">
+        <v>20000</v>
+      </c>
+      <c r="G50">
+        <v>50000</v>
+      </c>
+      <c r="H50">
+        <v>100000</v>
+      </c>
+      <c r="I50">
+        <v>500000</v>
+      </c>
+      <c r="J50">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>141</v>
+      </c>
+      <c r="G51">
+        <v>890</v>
+      </c>
+      <c r="H51">
+        <v>3557</v>
+      </c>
+      <c r="I51">
+        <v>89207</v>
+      </c>
+      <c r="J51">
+        <v>361045</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>1000</v>
+      </c>
+      <c r="N54">
+        <v>5000</v>
+      </c>
+      <c r="O54">
+        <v>10000</v>
+      </c>
+      <c r="P54">
+        <v>20000</v>
+      </c>
+      <c r="Q54">
+        <v>50000</v>
+      </c>
+      <c r="R54">
+        <v>100000</v>
+      </c>
+      <c r="S54">
+        <v>500000</v>
+      </c>
+      <c r="T54">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>36</v>
+      </c>
+      <c r="P55">
+        <v>139</v>
+      </c>
+      <c r="Q55">
+        <v>884</v>
+      </c>
+      <c r="R55">
+        <v>3582</v>
+      </c>
+      <c r="S55">
+        <v>89633</v>
+      </c>
+      <c r="T55">
+        <v>360935</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+      <c r="D56">
+        <v>5000</v>
+      </c>
+      <c r="E56">
+        <v>10000</v>
+      </c>
+      <c r="F56">
+        <v>20000</v>
+      </c>
+      <c r="G56">
+        <v>50000</v>
+      </c>
+      <c r="H56">
+        <v>100000</v>
+      </c>
+      <c r="I56">
+        <v>500000</v>
+      </c>
+      <c r="J56">
+        <v>1000000</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>15</v>
+      </c>
+      <c r="P56">
+        <v>63</v>
+      </c>
+      <c r="Q56">
+        <v>393</v>
+      </c>
+      <c r="R56">
+        <v>1575</v>
+      </c>
+      <c r="S56">
+        <v>40024</v>
+      </c>
+      <c r="T56">
+        <v>163987</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>64</v>
+      </c>
+      <c r="F57">
+        <v>255</v>
+      </c>
+      <c r="G57">
+        <v>1597</v>
+      </c>
+      <c r="H57">
+        <v>6404</v>
+      </c>
+      <c r="I57">
+        <v>161177</v>
+      </c>
+      <c r="J57">
+        <v>644623</v>
+      </c>
+      <c r="L57" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="Q57">
+        <v>8</v>
+      </c>
+      <c r="R57">
+        <v>18</v>
+      </c>
+      <c r="S57">
+        <v>91</v>
+      </c>
+      <c r="T57">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>33</v>
+      </c>
+      <c r="F58">
+        <v>130</v>
+      </c>
+      <c r="G58">
+        <v>801</v>
+      </c>
+      <c r="H58">
+        <v>3204</v>
+      </c>
+      <c r="I58">
+        <v>80851</v>
+      </c>
+      <c r="J58">
+        <v>328152</v>
+      </c>
+      <c r="L58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>6</v>
+      </c>
+      <c r="P58">
+        <v>14</v>
+      </c>
+      <c r="Q58">
+        <v>16</v>
+      </c>
+      <c r="R58">
+        <v>50</v>
+      </c>
+      <c r="S58">
+        <v>38</v>
+      </c>
+      <c r="T58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>47</v>
+      </c>
+      <c r="J59">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
